--- a/5D4D4817-64EB-414E-8939-D2419F482532.xlsx
+++ b/5D4D4817-64EB-414E-8939-D2419F482532.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\manu\building-relational-database\building-relational-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19757A8B-62C6-4149-B3F5-F77366A8A999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D104BD-D7CF-42BA-80D1-9B2B182AAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A119B2C4-549D-42F4-96FE-1FF968E52769}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A119B2C4-549D-42F4-96FE-1FF968E52769}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_EstruturaDados" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>ESTUDO DE CASO</t>
   </si>
@@ -117,6 +117,69 @@
 D(Determinante) ou M(Multivalorado)</t>
   </si>
   <si>
+    <t>CODIGO DO ESTABELECIMENTO</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>CHAVE PRIMARIA</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MONO</t>
+  </si>
+  <si>
+    <t>D(DETERMINANTE)</t>
+  </si>
+  <si>
+    <t>RAZAO SOCIAL</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>ESTABELECIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S(SIMPLES) </t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>ENDERECO</t>
+  </si>
+  <si>
+    <t>PRODUTOS</t>
+  </si>
+  <si>
+    <t>CODIGO DO PRODUTO</t>
+  </si>
+  <si>
+    <t>S(SIMPLES)</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>NUMERO DO PEDIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D(DETERMINANTE) </t>
+  </si>
+  <si>
+    <t>C(COMPOSTO)</t>
+  </si>
+  <si>
+    <t>NOME DO PRODUTO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">SISTEMA: </t>
     </r>
@@ -124,38 +187,50 @@
       <rPr>
         <b/>
         <sz val="16"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XXXX</t>
+      <t>VENDEBEM</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PROJETO DE BANCO DE DADOS SIGLA: </t>
+      <t>PROJETO DE BANCO DE DADOS SIGLA:</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XX</t>
+      <t xml:space="preserve"> VB</t>
     </r>
   </si>
   <si>
-    <t>Produtos</t>
-  </si>
-  <si>
-    <t>Estabelecimento</t>
-  </si>
-  <si>
-    <t>Pedido</t>
+    <t>QUANTIDADE DO PRODUTO</t>
+  </si>
+  <si>
+    <t>INSCRICAO ESTADUAL</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>TELEFONE DA EMPESSA</t>
+  </si>
+  <si>
+    <t>C(COMPOSTO) E M(MULTIVALORADO)</t>
+  </si>
+  <si>
+    <t>MESA</t>
   </si>
 </sst>
 </file>
@@ -195,14 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -226,8 +293,16 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,10 +540,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,19 +567,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -522,16 +597,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +654,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -874,23 +952,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6479A588-F37B-4C69-9D9E-CDCDD6669E2B}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -907,7 +985,7 @@
     </row>
     <row r="3" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -929,7 +1007,7 @@
     </row>
     <row r="5" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="38"/>
@@ -981,104 +1059,234 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="17">
+        <v>110</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="16">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="44" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="17">
+        <v>250</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16">
+        <v>12</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17">
+        <v>40</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="16">
+        <v>10</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="18">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="19">
+        <v>150</v>
+      </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
@@ -1086,7 +1294,9 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="19"/>
@@ -1096,7 +1306,9 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="18"/>
@@ -1106,7 +1318,9 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="19"/>
@@ -1116,7 +1330,9 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18"/>
@@ -1126,7 +1342,9 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="19"/>
@@ -1136,27 +1354,55 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="20">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="23"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="24" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="20"/>
@@ -1166,7 +1412,9 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
@@ -1176,7 +1424,9 @@
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="20"/>
@@ -1186,7 +1436,9 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
@@ -1196,7 +1448,9 @@
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="20"/>
